--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_G15-ProfessionSante/FHIR/TRE_G15-ProfessionSante</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G15-ProfessionSante/FHIR/TRE-G15-ProfessionSante</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1063,7 +1063,7 @@
     <t>PractitionerRole.specialty:competenceR39.coding</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV_J232-Competence-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:competenceR39.coding.id</t>
@@ -1477,30 +1477,30 @@
     <t>2</t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:communicationChannel</t>
-  </si>
-  <si>
-    <t>communicationChannel</t>
+    <t>PractitionerRole.telecom.extension:ror-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-communication-channel</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-communication-channel}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:confidentialityLevel</t>
-  </si>
-  <si>
-    <t>confidentialityLevel</t>
+    <t>PractitionerRole.telecom.extension:ror-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-confidentiality-level</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
+    <t>PractitionerRole.telecom.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
@@ -1660,30 +1660,30 @@
     <t>PractitionerRole.availableTime.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.availableTime.extension:openingClosingDate</t>
-  </si>
-  <si>
-    <t>openingClosingDate</t>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
+  </si>
+  <si>
+    <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.availableTime.extension:numberDaysOfWeek</t>
-  </si>
-  <si>
-    <t>numberDaysOfWeek</t>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-number-days-of-week</t>
+  </si>
+  <si>
+    <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
-    <t>PractitionerRole.availableTime.extension:typeOfTime</t>
-  </si>
-  <si>
-    <t>typeOfTime</t>
+    <t>PractitionerRole.availableTime.extension:ror-available-time-type-of-time</t>
+  </si>
+  <si>
+    <t>ror-available-time-type-of-time</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-type-of-time}
@@ -2120,9 +2120,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="84.24609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="36.94921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="46.02734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -20319,7 +20319,7 @@
         <v>84</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>74</v>
@@ -20433,7 +20433,7 @@
         <v>84</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>74</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitionerrole</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -462,7 +462,7 @@
     <t>ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <t>ror-practitionerrole-home-visit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitionerrole-home-visit}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-home-visit}
 </t>
   </si>
   <si>
@@ -1483,7 +1483,7 @@
     <t>ror-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-communication-channel}
 </t>
   </si>
   <si>
@@ -1493,7 +1493,7 @@
     <t>ror-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1503,7 +1503,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1666,7 +1666,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -1686,7 +1686,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -2130,7 +2130,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-practitionerrole</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>ror-practitionerrole-unit-exercise-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-practitionerrole-unit-exercise-mode}
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <t>ror-practitionerrole-home-visit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole-home-visit}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-practitionerrole-home-visit}
 </t>
   </si>
   <si>
@@ -1483,7 +1483,7 @@
     <t>ror-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-communication-channel}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-communication-channel}
 </t>
   </si>
   <si>
@@ -1493,7 +1493,7 @@
     <t>ror-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1503,7 +1503,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1666,7 +1666,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -1686,7 +1686,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -2130,7 +2130,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.25390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créée dans le cadre du ROR</t>
+    <t>Profil créé à partir de la ressource PractitionerRole dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
